--- a/gzdw_desk-master/matlab_lib/code_shiji/输出结果_银山.xlsx
+++ b/gzdw_desk-master/matlab_lib/code_shiji/输出结果_银山.xlsx
@@ -87,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -96,13 +96,27 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,8 +129,8 @@
   <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="true"/>
-    <col min="2" max="2" width="11.1796875" customWidth="true"/>
+    <col min="1" max="1" width="19.16796875" customWidth="true"/>
+    <col min="2" max="2" width="11.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,9 +150,9 @@
   <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="true"/>
-    <col min="2" max="2" width="12.24609375" customWidth="true"/>
-    <col min="3" max="3" width="11.64453125" customWidth="true"/>
+    <col min="1" max="1" width="17.8046875" customWidth="true"/>
+    <col min="2" max="2" width="12.34765625" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -194,8 +208,8 @@
   <dimension ref="A1:B8"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.1796875" customWidth="true"/>
-    <col min="2" max="2" width="11.1796875" customWidth="true"/>
+    <col min="1" max="1" width="2.16796875" customWidth="true"/>
+    <col min="2" max="2" width="11.16796875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
